--- a/Datas/#Facility.xlsx
+++ b/Datas/#Facility.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29630"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\client\LubanConfig\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E939BD-1158-4739-97DE-1686CA807D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3C866A-2833-4C69-B4A5-CED72B58B702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="facility" sheetId="1" r:id="rId1"/>
     <sheet name="说明" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="146">
   <si>
     <t>设施唯一ID</t>
   </si>
@@ -411,6 +422,153 @@
   </si>
   <si>
     <t>房屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大本营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场</t>
+  </si>
+  <si>
+    <t>半兽人城镇</t>
+  </si>
+  <si>
+    <t>人类城镇</t>
+  </si>
+  <si>
+    <t>鬼屋</t>
+  </si>
+  <si>
+    <t>FacilityName_Town_Player</t>
+  </si>
+  <si>
+    <t>FacilityInfo_Town_Player</t>
+  </si>
+  <si>
+    <t>FacilityName_Resource_Farm</t>
+  </si>
+  <si>
+    <t>FacilityInfo_Resource_Farm</t>
+  </si>
+  <si>
+    <t>FacilityName_Resource_GoldMine</t>
+  </si>
+  <si>
+    <t>FacilityInfo_Resource_GoldMine</t>
+  </si>
+  <si>
+    <t>FacilityName_Resource_CrystalCavern</t>
+  </si>
+  <si>
+    <t>FacilityInfo_Resource_CrystalCavern</t>
+  </si>
+  <si>
+    <t>FacilityName_Resource_OrePit</t>
+  </si>
+  <si>
+    <t>FacilityInfo_Resource_OrePit</t>
+  </si>
+  <si>
+    <t>FacilityName_Resource_Sawmill</t>
+  </si>
+  <si>
+    <t>FacilityInfo_Resource_Sawmill</t>
+  </si>
+  <si>
+    <t>FacilityName_Temple_Arena</t>
+  </si>
+  <si>
+    <t>FacilityInfo_Temple_Arena</t>
+  </si>
+  <si>
+    <t>FacilityName_Temple_HolySpring</t>
+  </si>
+  <si>
+    <t>FacilityInfo_Temple_HolySpring</t>
+  </si>
+  <si>
+    <t>FacilityName_Temple_Library </t>
+  </si>
+  <si>
+    <t>FacilityInfo_Temple_Library </t>
+  </si>
+  <si>
+    <t>FacilityName_Temple_Shrine</t>
+  </si>
+  <si>
+    <t>FacilityInfo_Temple_Shrine</t>
+  </si>
+  <si>
+    <t>FacilityName_Temple_Tower</t>
+  </si>
+  <si>
+    <t>FacilityInfo_Temple_Tower</t>
+  </si>
+  <si>
+    <t>FacilityName_Temple_Temple</t>
+  </si>
+  <si>
+    <t>FacilityInfo_Temple_Temple</t>
+  </si>
+  <si>
+    <t>FacilityName_Town_HalfOrc</t>
+  </si>
+  <si>
+    <t>FacilityInfo_Town_HalfOrc</t>
+  </si>
+  <si>
+    <t>FacilityName_Town_Human</t>
+  </si>
+  <si>
+    <t>FacilityInfo_Town_Human</t>
+  </si>
+  <si>
+    <t>FacilityName_House_Cave</t>
+  </si>
+  <si>
+    <t>FacilityInfo_House_Cave</t>
+  </si>
+  <si>
+    <t>FacilityName_House_Ruins</t>
+  </si>
+  <si>
+    <t>FacilityInfo_House_Ruins</t>
+  </si>
+  <si>
+    <t>FacilityName_House_HauntedHouse</t>
+  </si>
+  <si>
+    <t>FacilityInfo_House_HauntedHouse</t>
+  </si>
+  <si>
+    <t>FacilityName_House_Nest</t>
+  </si>
+  <si>
+    <t>FacilityInfo_House_Nest</t>
+  </si>
+  <si>
+    <t>Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Ore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -580,10 +738,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -600,7 +757,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -956,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1079,6 +1236,632 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="O3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4">
+        <v>1001</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>2000</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <v>1002</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>2000</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>1003</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>2000</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>1004</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>2000</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8">
+        <v>1005</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>2000</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9">
+        <v>1006</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="O9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10">
+        <v>1007</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="O10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>1008</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="O11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>1009</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="O12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>1010</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="O13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>1011</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="O14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15">
+        <v>1012</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="O15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16">
+        <v>1013</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="O16">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>1014</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="O17">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18">
+        <v>1015</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="O18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>1016</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="O19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>1017</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="O20">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>1018</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" t="s">
+        <v>136</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="O21">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1089,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5292485-2925-4F56-87C6-A9E84247AB39}">
   <dimension ref="B2:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1101,16 +1884,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="15" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1127,12 +1910,12 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="19"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="18"/>
     </row>
     <row r="4" spans="2:21">
       <c r="B4" t="s">
@@ -1147,16 +1930,16 @@
       <c r="E4" t="s">
         <v>87</v>
       </c>
-      <c r="R4" s="17">
+      <c r="R4" s="16">
         <v>1</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="17">
         <v>1</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="18" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1173,12 +1956,12 @@
       <c r="E5" t="s">
         <v>86</v>
       </c>
-      <c r="R5" s="17"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18">
+      <c r="R5" s="16"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17">
         <v>2</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="U5" s="18" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1195,10 +1978,10 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="19"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="18"/>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" t="s">
@@ -1213,16 +1996,16 @@
       <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="16">
         <v>2</v>
       </c>
-      <c r="S7" s="18" t="s">
+      <c r="S7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="17">
         <v>1</v>
       </c>
-      <c r="U7" s="19" t="s">
+      <c r="U7" s="18" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1239,12 +2022,12 @@
       <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18">
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17">
         <v>2</v>
       </c>
-      <c r="U8" s="19" t="s">
+      <c r="U8" s="18" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1261,12 +2044,12 @@
       <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="17"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18">
+      <c r="R9" s="16"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17">
         <v>3</v>
       </c>
-      <c r="U9" s="19" t="s">
+      <c r="U9" s="18" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1283,12 +2066,12 @@
       <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18">
+      <c r="R10" s="16"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17">
         <v>4</v>
       </c>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1305,12 +2088,12 @@
       <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18">
+      <c r="R11" s="16"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17">
         <v>5</v>
       </c>
-      <c r="U11" s="19" t="s">
+      <c r="U11" s="18" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1328,9 +2111,7 @@
         <v>30</v>
       </c>
       <c r="R12" s="5"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="7"/>
+      <c r="U12" s="6"/>
     </row>
     <row r="13" spans="2:21">
       <c r="B13" t="s">
@@ -1345,16 +2126,16 @@
       <c r="E13" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="16">
         <v>3</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="S13" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="T13" s="18">
+      <c r="T13" s="17">
         <v>1</v>
       </c>
-      <c r="U13" s="19" t="s">
+      <c r="U13" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1371,12 +2152,12 @@
       <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18">
+      <c r="R14" s="16"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17">
         <v>2</v>
       </c>
-      <c r="U14" s="19" t="s">
+      <c r="U14" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1393,22 +2174,22 @@
       <c r="E15" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="17"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18">
+      <c r="R15" s="16"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17">
         <v>3</v>
       </c>
-      <c r="U15" s="19" t="s">
+      <c r="U15" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:21">
-      <c r="R16" s="17"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18">
+      <c r="R16" s="16"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17">
         <v>4</v>
       </c>
-      <c r="U16" s="19" t="s">
+      <c r="U16" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1425,12 +2206,12 @@
       <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="20"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21">
+      <c r="R17" s="19"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20">
         <v>5</v>
       </c>
-      <c r="U17" s="22" t="s">
+      <c r="U17" s="21" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1480,9 +2261,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="7"/>
+      <c r="U20" s="6"/>
     </row>
     <row r="21" spans="2:21">
       <c r="B21" t="s">
@@ -1498,14 +2277,14 @@
         <v>76</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="R21" s="8">
+      <c r="R21" s="7">
         <v>4</v>
       </c>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9">
+      <c r="S21" s="8"/>
+      <c r="T21" s="8">
         <v>1</v>
       </c>
-      <c r="U21" s="10" t="s">
+      <c r="U21" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1523,12 +2302,12 @@
         <v>78</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9">
+      <c r="R22" s="7"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8">
         <v>2</v>
       </c>
-      <c r="U22" s="10" t="s">
+      <c r="U22" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1546,80 +2325,80 @@
         <v>81</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9">
+      <c r="R23" s="7"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8">
         <v>3</v>
       </c>
-      <c r="U23" s="10" t="s">
+      <c r="U23" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:21">
-      <c r="R24" s="8"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9">
+      <c r="R24" s="7"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8">
         <v>4</v>
       </c>
-      <c r="U24" s="10" t="s">
+      <c r="U24" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:21">
-      <c r="R25" s="8"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9">
+      <c r="R25" s="7"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8">
         <v>5</v>
       </c>
-      <c r="U25" s="10" t="s">
+      <c r="U25" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:21">
-      <c r="R26" s="8"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9">
+      <c r="R26" s="7"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8">
         <v>6</v>
       </c>
-      <c r="U26" s="10" t="s">
+      <c r="U26" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:21">
-      <c r="R27" s="8"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9">
+      <c r="R27" s="7"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8">
         <v>7</v>
       </c>
-      <c r="U27" s="10" t="s">
+      <c r="U27" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:21">
-      <c r="R28" s="8"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="10"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="9"/>
     </row>
     <row r="29" spans="2:21">
-      <c r="R29" s="8">
+      <c r="R29" s="7">
         <v>5</v>
       </c>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9">
+      <c r="S29" s="8"/>
+      <c r="T29" s="8">
         <v>1</v>
       </c>
-      <c r="U29" s="10" t="s">
+      <c r="U29" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:21">
-      <c r="R30" s="8"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9">
+      <c r="R30" s="7"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8">
         <v>2</v>
       </c>
-      <c r="U30" s="10" t="s">
+      <c r="U30" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1633,12 +2412,12 @@
       <c r="D31" t="s">
         <v>84</v>
       </c>
-      <c r="R31" s="8"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9">
+      <c r="R31" s="7"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8">
         <v>3</v>
       </c>
-      <c r="U31" s="10" t="s">
+      <c r="U31" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1649,32 +2428,32 @@
       <c r="C32" t="s">
         <v>83</v>
       </c>
-      <c r="R32" s="8"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9">
+      <c r="R32" s="7"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8">
         <v>4</v>
       </c>
-      <c r="U32" s="10" t="s">
+      <c r="U32" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="18:21">
-      <c r="R33" s="8"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9">
+      <c r="R33" s="7"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8">
         <v>5</v>
       </c>
-      <c r="U33" s="10" t="s">
+      <c r="U33" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="34" spans="18:21">
-      <c r="R34" s="11"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12">
+      <c r="R34" s="10"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11">
         <v>6</v>
       </c>
-      <c r="U34" s="13" t="s">
+      <c r="U34" s="12" t="s">
         <v>59</v>
       </c>
     </row>
